--- a/ScratchPad/Stockstober/Stocks Information.xlsx
+++ b/ScratchPad/Stockstober/Stocks Information.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54920f6bd1f4d961/Documents/UiPath/Stockstober/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC10484AD1D86EB85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555E38CE-2AAC-40D9-8AFF-82F20C471C6C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4116" yWindow="1968" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stock Finances" sheetId="1" r:id="rId1"/>
+    <sheet name="Current Price Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,94 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+  <si>
+    <t>Stock Name</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Earnings Estimate</t>
+  </si>
+  <si>
+    <t>Revenue Estimates</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Apple Inc. (AAPL)</t>
+  </si>
+  <si>
+    <t>Avg. Estimate</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Tesla, Inc. (TSLA)</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Microsoft Corporation (MSFT)</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Sony Group Corporation (SONY)</t>
+  </si>
+  <si>
+    <t>GameStop</t>
+  </si>
+  <si>
+    <t>GameStop Corp. (GME)</t>
+  </si>
+  <si>
+    <t>Virgin Galactic</t>
+  </si>
+  <si>
+    <t>Virgin Galactic Holdings, Inc. (SPCE)</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Honda Motor Co., Ltd. (HMC)</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Toyota Motor Corporation (TM)</t>
+  </si>
+  <si>
+    <t>Boeing</t>
+  </si>
+  <si>
+    <t>The Boeing Company (BA)</t>
+  </si>
+  <si>
+    <t>Nintendo</t>
+  </si>
+  <si>
+    <t>Nintendo Co., Ltd. (NTDOY)</t>
+  </si>
+  <si>
+    <t>T-Mobile</t>
+  </si>
+  <si>
+    <t>T-Mobile US, Inc. (TMUS)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,12 +424,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2 B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B413A35-9749-488C-AD80-FCB0CA68C243}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ScratchPad/Stockstober/Stocks Information.xlsx
+++ b/ScratchPad/Stockstober/Stocks Information.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54920f6bd1f4d961/Documents/UiPath/Stockstober/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC10484AD1D86EB85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555E38CE-2AAC-40D9-8AFF-82F20C471C6C}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC10484AD1D86EB85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{909CCC27-D19A-488D-94AA-A86E1A0DBE33}"/>
   <bookViews>
-    <workbookView xWindow="4116" yWindow="1968" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock Finances" sheetId="1" r:id="rId1"/>
-    <sheet name="Current Price Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Transaction History" sheetId="2" r:id="rId2"/>
+    <sheet name="Buy and Sell" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>Stock Name</t>
   </si>
@@ -107,13 +108,95 @@
   </si>
   <si>
     <t>T-Mobile US, Inc. (TMUS)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Trade Type</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Cash Value</t>
+  </si>
+  <si>
+    <t>SPCE</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Price Change Decision</t>
+  </si>
+  <si>
+    <t>RSI Decision</t>
+  </si>
+  <si>
+    <t>MVA Decision</t>
+  </si>
+  <si>
+    <t>MVA Current Price Deicison</t>
+  </si>
+  <si>
+    <t>MCD Decision</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>NTDOY</t>
+  </si>
+  <si>
+    <t>TMUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,16 +204,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,13 +248,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,183 +581,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2 B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2 B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -614,12 +768,549 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B413A35-9749-488C-AD80-FCB0CA68C243}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1 A1:F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>44503</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8">
+        <v>19.59</v>
+      </c>
+      <c r="F2" s="9">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10">
+        <v>41.52</v>
+      </c>
+      <c r="F3" s="11">
+        <v>415.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44503</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>214</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10">
+        <v>123</v>
+      </c>
+      <c r="F5" s="11">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44503</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>333.9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1001.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10">
+        <v>211.47</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1057.3499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44503</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12">
+        <v>179.9</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1079.4000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10">
+        <v>30.24</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1058.4000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44503</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1177.33</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2354.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
+        <v>150.38999999999999</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1052.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44503</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>55</v>
+      </c>
+      <c r="E12" s="12">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1073.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAECAB8B-7063-43D0-8E08-AF3C6014F9AA}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>